--- a/Data/Result.XLSX
+++ b/Data/Result.XLSX
@@ -1,14 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15">
-  <x:fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <x:workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <x:workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerem\OneDrive\Documents\UiPath\ApartmentFinder\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF5ED3E1-5896-43EB-AD4A-6AC2D4289413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="0" activeTab="0"/>
+    <x:workbookView xWindow="29190" yWindow="-2385" windowWidth="28800" windowHeight="15435" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <x:sheet name="RentCafe" sheetId="4" r:id="rId4"/>
+    <x:sheet name="ApartmentDotCom Result" sheetId="4" r:id="rId4"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="162913"/>
@@ -21,11 +27,438 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="142">
+  <x:si>
+    <x:t>Apartment_Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Url</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Price</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bedrooms</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Features</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Phone-Number</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Address</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ariza Temple</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.apartments.com/ariza-temple-temple-tx/1jh5nt5/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$1,190 - 2,050</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1-3 Beds</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dog &amp; Cat Friendly Fitness Center Pool Clubhouse Property Manager on Site Business Center Lounge Package Service</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(254) 280-4396</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2012 S 31st St, Temple, TX 76504</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Village on Pepper Creek</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.apartments.com/village-on-pepper-creek-temple-tx/ryzxc70/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$1,425 - 2,175</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dog &amp; Cat Friendly Fitness Center Pool Clubhouse Maintenance on site Property Manager on Site Business Center Controlled Access</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(254) 277-3441</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5801 W Adams Ave, Temple, TX 76502</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WILDFLOWER VILLAS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.apartments.com/wildflower-villas-temple-tx/rwxzkj3/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$1,039 - 1,957</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dog &amp; Cat Friendly Fitness Center Pool Dishwasher Refrigerator Kitchen In Unit Washer &amp; Dryer Walk-In Closets</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(254) 277-5538</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5227 W Adams Ave, Temple, TX 76502</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PECAN POINTE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.apartments.com/pecan-pointe-temple-tx/1wp3m14/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$1,018 - 2,236</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(254) 277-3437</x:t>
+  </x:si>
+  <x:si>
+    <x:t>463 Westfield Blvd, Temple, TX 76502</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Parks on the Green</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.apartments.com/parks-on-the-green-temple-tx/hs6eyt1/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$975 - 1,415</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dog &amp; Cat Friendly Pool Dishwasher Refrigerator Kitchen Walk-In Closets Range Disposal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(254) 272-3646</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3007 Antelope Trl, Temple, TX 76504</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Oaks at Creekside</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.apartments.com/oaks-at-creekside-temple-tx/rscxft3/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$899 - 1,319</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(254) 613-8072</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2602 S 39th St, Temple, TX 76504</x:t>
+  </x:si>
+  <x:si>
+    <x:t>River Springs At Barge Ranch</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.apartments.com/river-springs-at-barge-ranch-belton-tx/zljhy2y/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$1,225 - 1,800</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(254) 277-2558</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3300 N Main St, Belton, TX 76513</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Chappell Creek Village</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.apartments.com/chappell-creek-village-temple-tx/bgb9w6b/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$1,215 - 2,325</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1-2 Beds</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(254) 613-8039</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3010 Ira Young Dr, Temple, TX 76504</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Portico at Friar's Creek Apts</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.apartments.com/portico-at-friars-creek-apts-temple-tx/gql9lmy/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$1,259 - 1,809</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(254) 360-1028</x:t>
+  </x:si>
+  <x:si>
+    <x:t>507 Marlandwood Rd, Temple, TX 76502</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Encore Landing Apartments</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.apartments.com/encore-landing-apartments-temple-tx/bhy8vy9/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$1,317 - 3,283</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(254) 360-1030</x:t>
+  </x:si>
+  <x:si>
+    <x:t>764 Marlandwood Rd, Temple, TX 76502</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Villas on the Hill</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.apartments.com/villas-on-the-hill-temple-tx/714z2cy/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$1,587 - 1,953</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(254) 272-4419</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2510 S 31st St, Temple, TX 76504</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Summit Ridge Apartments</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.apartments.com/summit-ridge-apartments-temple-tx/qf23ksx/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$975 - 1,554</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(254) 280-4135</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5433 205 Loop, Temple, TX 76502</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Midtown Apartments</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.apartments.com/midtown-apartments-temple-tx/1gsd5j4/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$1,075 - 1,885</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(254) 280-4377</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3000 W Adams Ave, Temple, TX 76504</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Chappell Hill Apartments</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.apartments.com/chappell-hill-apartments-temple-tx/2wyv0t9/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$970 - 1,525</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(254) 272-0733</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3009 Ira Young Dr, Temple, TX 76504</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Chappell Oaks Apartments</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.apartments.com/chappell-oaks-apartments-belton-tx/zq254wx/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$1,285 - 1,900</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(254) 277-2500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>200 Lake Rd, Belton, TX 76513</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Echo Station Apartments</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.apartments.com/echo-station-apartments-temple-tx/jeccp84/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1213 Waters Dairy Rd, Temple, TX 76502</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Greenbrier Park Apartments</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.apartments.com/greenbrier-park-apartments-temple-tx/wb77y7h/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2405 S 13th St, Temple, TX 76504</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Virtu on Azalea - NOW OPEN!!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.apartments.com/virtu-on-azalea-now-open-temple-tx/rsnyf33/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>720 Azalea Dr, Temple, TX 76502</x:t>
+  </x:si>
+  <x:si>
+    <x:t>The Park at Chappell Hill</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.apartments.com/the-park-at-chappell-hill-temple-tx/kpbsf1c/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2803 Ira Young Dr, Temple, TX 76504</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bell Tower</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.apartments.com/bell-tower-temple-tx/x5n16kn/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3506 S 5th St, Temple, TX 76502</x:t>
+  </x:si>
+  <x:si>
+    <x:t>The Bricks on 13th</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.apartments.com/the-bricks-on-13th-temple-tx/kbvxc9b/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2416 S 13th St, Temple, TX 76504</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Marland Place</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.apartments.com/marland-place-temple-tx/gqvdskx/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1810 Marlandwood Rd, Temple, TX 76502</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Waterford Park</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.apartments.com/waterford-park-temple-tx/jdmz8b7/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3608 S 31st St, Temple, TX 76502</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Apple Creek</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.apartments.com/apple-creek-temple-tx/3957fsf/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4802 S 31st St, Temple, TX 76502</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Heritage Village Apartments</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.apartments.com/heritage-village-apartments-temple-tx/qxtvxrx/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>620 W Elm Ave, Temple, TX 76501</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wildwood</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.apartments.com/wildwood-temple-tx/epyyl9n/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4101 W Adams Ave, Temple, TX 76504</x:t>
+  </x:si>
+  <x:si>
+    <x:t>The Retreat</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.apartments.com/the-retreat-temple-tx/zt9nfvw/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>601 Twin Oaks Dr, Temple, TX 76504</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4 Hundred Apartments</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.apartments.com/4-hundred-apartments-temple-tx/6nzzbfs/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>400 S Fryers Creek Dr, Temple, TX 76504</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Plantation Square Apartments</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2411 S 61st St</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Call for Rent 1-2 Beds</x:t>
+  </x:si>
+  <x:si>
+    <x:t>The Bluffs Apartments</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4102 W Adams Ave</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$950 - 1,500 1-3 Beds</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Holly Oaks</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3320 Thornton Ln</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$951 - 1,076 1-3 Beds</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Village at Meadowbend</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2787 S Martin Luther King Jr Dr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$755 - 1,033 1-3 Beds</x:t>
+  </x:si>
+  <x:si>
+    <x:t>House for Rent</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9020 Misty Pine Dr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7445 Shady Meadows Ln</x:t>
+  </x:si>
+</x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2">
+<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2 xr">
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
@@ -345,7 +778,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -368,12 +801,554 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1"/>
+  <x:dimension ref="A1:G35"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
-  <x:sheetData/>
+  <x:sheetData>
+    <x:row r="1" spans="1:7">
+      <x:c r="A1" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C1" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D1" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E1" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="F1" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G1" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:7">
+      <x:c r="A2" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F2" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G2" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:7">
+      <x:c r="A3" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E3" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F3" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G3" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:7">
+      <x:c r="A4" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E4" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="F4" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G4" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:7">
+      <x:c r="A5" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E5" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="F5" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="G5" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:7">
+      <x:c r="A6" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E6" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="F6" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="G6" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:7">
+      <x:c r="A7" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F7" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="G7" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:7">
+      <x:c r="A8" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F8" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="G8" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:7">
+      <x:c r="A9" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="F9" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="G9" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:7">
+      <x:c r="A10" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="F10" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="G10" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:7">
+      <x:c r="A11" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F11" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="G11" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:7">
+      <x:c r="A12" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="F12" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="G12" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:7">
+      <x:c r="A13" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="D13" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F13" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="G13" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:7">
+      <x:c r="A14" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="D14" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="F14" s="0" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="G14" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:7">
+      <x:c r="A15" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="C15" s="0" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="D15" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="F15" s="0" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="G15" s="0" t="s">
+        <x:v>82</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:7">
+      <x:c r="A16" s="0" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="D16" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F16" s="0" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="G16" s="0" t="s">
+        <x:v>87</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:7">
+      <x:c r="A17" s="0" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="G17" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:7">
+      <x:c r="A18" s="0" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="G18" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:7">
+      <x:c r="A19" s="0" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="B19" s="0" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="G19" s="0" t="s">
+        <x:v>96</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:7">
+      <x:c r="A20" s="0" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="B20" s="0" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="G20" s="0" t="s">
+        <x:v>99</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:7">
+      <x:c r="A21" s="0" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="B21" s="0" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="G21" s="0" t="s">
+        <x:v>102</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:7">
+      <x:c r="A22" s="0" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="B22" s="0" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="G22" s="0" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:7">
+      <x:c r="A23" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="B23" s="0" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="G23" s="0" t="s">
+        <x:v>108</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:7">
+      <x:c r="A24" s="0" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="B24" s="0" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="G24" s="0" t="s">
+        <x:v>111</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:7">
+      <x:c r="A25" s="0" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="B25" s="0" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="G25" s="0" t="s">
+        <x:v>114</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:7">
+      <x:c r="A26" s="0" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="B26" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="G26" s="0" t="s">
+        <x:v>117</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:7">
+      <x:c r="A27" s="0" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="B27" s="0" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="G27" s="0" t="s">
+        <x:v>120</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:7">
+      <x:c r="A28" s="0" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="B28" s="0" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="G28" s="0" t="s">
+        <x:v>123</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:7">
+      <x:c r="A29" s="0" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="B29" s="0" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="G29" s="0" t="s">
+        <x:v>126</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:7">
+      <x:c r="C30" s="0" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="D30" s="0" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="E30" s="0" t="s">
+        <x:v>129</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:7">
+      <x:c r="C31" s="0" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="D31" s="0" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="E31" s="0" t="s">
+        <x:v>132</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:7">
+      <x:c r="C32" s="0" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="D32" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="E32" s="0" t="s">
+        <x:v>135</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:7">
+      <x:c r="C33" s="0" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="D33" s="0" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="E33" s="0" t="s">
+        <x:v>138</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:7">
+      <x:c r="C34" s="0" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="D34" s="0" t="s">
+        <x:v>140</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:7">
+      <x:c r="C35" s="0" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="D35" s="0" t="s">
+        <x:v>141</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
